--- a/4 - Plots/All_Graphs/MI+AG_Values.xlsx
+++ b/4 - Plots/All_Graphs/MI+AG_Values.xlsx
@@ -428,160 +428,100 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>28732.4209622781</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9914.0621850672</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8820.10086146758</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6174.0706030273</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21266.2431882052</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6058.59355754107</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10584.1210337611</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1470.0168102446</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>71276.983627979</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>49797.3508642427</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>24443.1033114748</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>28000.1220769506</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>21250.9069834837</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>66944.9172784421</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>17329.0657805231</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>55179.3936695606</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>12788.0812882577</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>16599.4209055538</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -612,160 +552,100 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>31554.495719598</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10887.8132195418</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>9029.45451890329</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6320.61816323231</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21771.0181178002</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>6653.66363416444</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10835.345422684</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1504.90908648388</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>91459.0955885245</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>63897.4945477389</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>27196.4617399491</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>31154.1557991208</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>23644.6850201797</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>74485.8317803084</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>19281.0736216057</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>61394.9975845867</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>12801.3930491866</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>18469.2389428013</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -796,160 +676,100 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>27025.0452899223</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>9324.93575498917</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8973.39744887607</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>6281.37821421325</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>21635.8582934012</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>5698.57185027116</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>10768.0769386513</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1495.56624147934</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>54356.3523925348</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>37975.8263329334</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>16959.6048238673</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>19427.6070183852</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>14744.7310595562</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>46449.0669429796</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>12023.6004348312</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>38285.6750688048</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>14307.3987870709</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>11517.3435744173</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -980,160 +800,100 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>38312.9224592083</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>13219.7943309728</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>10918.7015850366</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>7643.09110952565</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>26326.2027105883</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>8078.76320226118</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>13102.441902044</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1819.78359750611</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>116199.028211376</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>81181.9395743138</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>39013.5026173269</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>44690.8406847737</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>33918.4556337207</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>106850.413884768</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>27658.8264824332</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>88071.5264309058</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>14434.0676668013</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>26494.2443147519</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1164,160 +924,100 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>17144.7587863091</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>5915.76341508427</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>8261.94921559266</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>5783.36445091487</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>19920.4775531512</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>3615.1887536626</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>9914.33905871119</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>1376.99153593211</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>65937.7531173411</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>46067.1209702417</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>14004.9075756615</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>16042.9351706272</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>12175.9084519744</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>38356.7244796103</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>9928.85238573018</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>31615.5562808777</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>15364.353180661</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>9510.79544317312</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1348,160 +1048,100 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>49793.118637347</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>17181.0121815766</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>12772.1198736674</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>8940.48391156718</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>30795.0001398425</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>10499.5074442968</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>15326.5438484009</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>2128.68664561123</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>147893.940732624</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>103325.450692432</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>46187.2988356742</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>52908.5848602685</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>40155.3754802689</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>126498.049796212</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>32744.7267864854</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>104266.103714861</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>15568.8759031392</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>31366.0014481071</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
